--- a/data/segmentation_output/extracted_features/E_2m_Control.xlsx
+++ b/data/segmentation_output/extracted_features/E_2m_Control.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="01_01_03" sheetId="2" r:id="rId3"/>
+    <sheet name="01_01_10" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -98,7 +98,7 @@
     <col min="5" max="5" width="13.51171875" customWidth="true"/>
     <col min="6" max="6" width="13.51171875" customWidth="true"/>
     <col min="7" max="7" width="13.51171875" customWidth="true"/>
-    <col min="8" max="8" width="11.64453125" customWidth="true"/>
+    <col min="8" max="8" width="12.24609375" customWidth="true"/>
     <col min="9" max="9" width="8.98046875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -133,3482 +133,3482 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5409</v>
+        <v>1618</v>
       </c>
       <c r="B2">
-        <v>201.70530597152893</v>
+        <v>185.73114956736711</v>
       </c>
       <c r="C2">
-        <v>293.87243483083751</v>
+        <v>359.74598269468481</v>
       </c>
       <c r="D2">
-        <v>160.5</v>
+        <v>152.5</v>
       </c>
       <c r="E2">
-        <v>210.5</v>
+        <v>324.5</v>
       </c>
       <c r="F2">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="H2">
-        <v>81.227003584480755</v>
+        <v>-49.217211740311605</v>
       </c>
       <c r="I2">
-        <v>610.73799999999994</v>
+        <v>230.16900000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5795</v>
+        <v>1581</v>
       </c>
       <c r="B3">
-        <v>201.13252804141501</v>
+        <v>185.82479443390258</v>
       </c>
       <c r="C3">
-        <v>297.68231233822263</v>
+        <v>360.11764705882354</v>
       </c>
       <c r="D3">
-        <v>151.5</v>
+        <v>156.5</v>
       </c>
       <c r="E3">
-        <v>212.5</v>
+        <v>326.5</v>
       </c>
       <c r="F3">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>80.883293413795514</v>
+        <v>-50.542217103588165</v>
       </c>
       <c r="I3">
-        <v>602.50900000000001</v>
+        <v>219.84699999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5648</v>
+        <v>1629</v>
       </c>
       <c r="B4">
-        <v>199.06710339943342</v>
+        <v>185.82381829343154</v>
       </c>
       <c r="C4">
-        <v>294.12075070821533</v>
+        <v>359.7329650092081</v>
       </c>
       <c r="D4">
-        <v>155.5</v>
+        <v>154.5</v>
       </c>
       <c r="E4">
-        <v>201.5</v>
+        <v>324.5</v>
       </c>
       <c r="F4">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>84.032278495447258</v>
+        <v>-49.084785967229593</v>
       </c>
       <c r="I4">
-        <v>654.1819999999999</v>
+        <v>229.12700000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5642</v>
+        <v>1698</v>
       </c>
       <c r="B5">
-        <v>199.85430698333923</v>
+        <v>185.96525323910484</v>
       </c>
       <c r="C5">
-        <v>292.94062389223677</v>
+        <v>359.67314487632507</v>
       </c>
       <c r="D5">
-        <v>158.5</v>
+        <v>155.5</v>
       </c>
       <c r="E5">
-        <v>203.5</v>
+        <v>324.5</v>
       </c>
       <c r="F5">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>83.387249822136184</v>
+        <v>-50.044617975224909</v>
       </c>
       <c r="I5">
-        <v>614.42699999999991</v>
+        <v>225.58699999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5349</v>
+        <v>1691</v>
       </c>
       <c r="B6">
-        <v>198.74911198354832</v>
+        <v>185.52335895919575</v>
       </c>
       <c r="C6">
-        <v>292.41708730603852</v>
+        <v>359.62093435836783</v>
       </c>
       <c r="D6">
-        <v>159.5</v>
+        <v>153.5</v>
       </c>
       <c r="E6">
-        <v>197.5</v>
+        <v>322.5</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="H6">
-        <v>83.993681873233086</v>
+        <v>-49.77633180461639</v>
       </c>
       <c r="I6">
-        <v>592.64199999999994</v>
+        <v>236.685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5246</v>
+        <v>1689</v>
       </c>
       <c r="B7">
-        <v>200.159550133435</v>
+        <v>184.6631142687981</v>
       </c>
       <c r="C7">
-        <v>293.57758292032025</v>
+        <v>358.17406749555948</v>
       </c>
       <c r="D7">
-        <v>160.5</v>
+        <v>154.5</v>
       </c>
       <c r="E7">
-        <v>208.5</v>
+        <v>321.5</v>
       </c>
       <c r="F7">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>82.707293479487461</v>
+        <v>-49.546527541515538</v>
       </c>
       <c r="I7">
-        <v>621.58799999999985</v>
+        <v>232.17000000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>5594</v>
+        <v>1771</v>
       </c>
       <c r="B8">
-        <v>202.35001787629602</v>
+        <v>185.90965556182948</v>
       </c>
       <c r="C8">
-        <v>289.53181980693603</v>
+        <v>359.44212309429702</v>
       </c>
       <c r="D8">
-        <v>160.5</v>
+        <v>154.5</v>
       </c>
       <c r="E8">
-        <v>201.5</v>
+        <v>321.5</v>
       </c>
       <c r="F8">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="H8">
-        <v>80.736229501113215</v>
+        <v>-50.069150076918419</v>
       </c>
       <c r="I8">
-        <v>614.88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>5601</v>
+        <v>1752</v>
       </c>
       <c r="B9">
-        <v>202.62006784502768</v>
+        <v>185.33105022831049</v>
       </c>
       <c r="C9">
-        <v>288.63649348330654</v>
+        <v>358.48630136986299</v>
       </c>
       <c r="D9">
-        <v>160.5</v>
+        <v>152.5</v>
       </c>
       <c r="E9">
-        <v>200.5</v>
+        <v>322.5</v>
       </c>
       <c r="F9">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="H9">
-        <v>80.132968078272313</v>
+        <v>-49.975766245457237</v>
       </c>
       <c r="I9">
-        <v>636.64099999999996</v>
+        <v>243.02000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>5312</v>
+        <v>1719</v>
       </c>
       <c r="B10">
-        <v>202.28783885542168</v>
+        <v>185.28737638161721</v>
       </c>
       <c r="C10">
-        <v>289.18128765060243</v>
+        <v>357.2233856893543</v>
       </c>
       <c r="D10">
-        <v>160.5</v>
+        <v>153.5</v>
       </c>
       <c r="E10">
-        <v>194.5</v>
+        <v>318.5</v>
       </c>
       <c r="F10">
+        <v>62</v>
+      </c>
+      <c r="G10">
         <v>82</v>
       </c>
-      <c r="G10">
-        <v>206</v>
-      </c>
       <c r="H10">
-        <v>80.399901954516267</v>
+        <v>-50.525334417409738</v>
       </c>
       <c r="I10">
-        <v>597.10699999999997</v>
+        <v>241.71299999999997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>5249</v>
+        <v>1888</v>
       </c>
       <c r="B11">
-        <v>202.17450943036769</v>
+        <v>183.51006355932202</v>
       </c>
       <c r="C11">
-        <v>288.43703562583352</v>
+        <v>355.10646186440675</v>
       </c>
       <c r="D11">
-        <v>160.5</v>
+        <v>147.5</v>
       </c>
       <c r="E11">
-        <v>195.5</v>
+        <v>312.5</v>
       </c>
       <c r="F11">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G11">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="H11">
-        <v>80.122161159984884</v>
+        <v>-51.231489207910499</v>
       </c>
       <c r="I11">
-        <v>624.78899999999999</v>
+        <v>257.37700000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>5642</v>
+        <v>1897</v>
       </c>
       <c r="B12">
-        <v>202.66058135412973</v>
+        <v>183.01476014760146</v>
       </c>
       <c r="C12">
-        <v>287.31460475008862</v>
+        <v>354.36478650500788</v>
       </c>
       <c r="D12">
-        <v>158.5</v>
+        <v>148.5</v>
       </c>
       <c r="E12">
-        <v>187.5</v>
+        <v>310.5</v>
       </c>
       <c r="F12">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G12">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>79.392845622235527</v>
+        <v>-52.402873737171582</v>
       </c>
       <c r="I12">
-        <v>642.25599999999997</v>
+        <v>260.43799999999993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4610</v>
+        <v>1909</v>
       </c>
       <c r="B13">
-        <v>201.73318872017353</v>
+        <v>182.87270822420115</v>
       </c>
       <c r="C13">
-        <v>291.13709327548804</v>
+        <v>353.88056574122578</v>
       </c>
       <c r="D13">
-        <v>167.5</v>
+        <v>148.5</v>
       </c>
       <c r="E13">
-        <v>194.5</v>
+        <v>305.5</v>
       </c>
       <c r="F13">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G13">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="H13">
-        <v>80.371841053692847</v>
+        <v>-53.028529739386457</v>
       </c>
       <c r="I13">
-        <v>593.63499999999999</v>
+        <v>278.36700000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4712</v>
+        <v>1842</v>
       </c>
       <c r="B14">
-        <v>201.57109507640067</v>
+        <v>182.71498371335505</v>
       </c>
       <c r="C14">
-        <v>291.946519524618</v>
+        <v>353.44679695982626</v>
       </c>
       <c r="D14">
-        <v>166.5</v>
+        <v>146.5</v>
       </c>
       <c r="E14">
-        <v>194.5</v>
+        <v>301.5</v>
       </c>
       <c r="F14">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G14">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="H14">
-        <v>80.61404050186853</v>
+        <v>-53.196884030291002</v>
       </c>
       <c r="I14">
-        <v>583.49599999999998</v>
+        <v>282.255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>5270</v>
+        <v>1852</v>
       </c>
       <c r="B15">
-        <v>202.09791271347248</v>
+        <v>182.97354211663068</v>
       </c>
       <c r="C15">
-        <v>289.77514231499049</v>
+        <v>353.62580993520521</v>
       </c>
       <c r="D15">
-        <v>160.5</v>
+        <v>146.5</v>
       </c>
       <c r="E15">
-        <v>191.5</v>
+        <v>306.5</v>
       </c>
       <c r="F15">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G15">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="H15">
-        <v>80.287284665489238</v>
+        <v>-52.682329372665087</v>
       </c>
       <c r="I15">
-        <v>649.99699999999996</v>
+        <v>274.14099999999996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>4735</v>
+        <v>1906</v>
       </c>
       <c r="B16">
-        <v>201.62154171066527</v>
+        <v>182.82843651626442</v>
       </c>
       <c r="C16">
-        <v>290.95586061246041</v>
+        <v>352.86778593913954</v>
       </c>
       <c r="D16">
-        <v>160.5</v>
+        <v>143.5</v>
       </c>
       <c r="E16">
-        <v>192.5</v>
+        <v>304.5</v>
       </c>
       <c r="F16">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G16">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="H16">
-        <v>80.130328334216728</v>
+        <v>-52.111641942300196</v>
       </c>
       <c r="I16">
-        <v>607.47199999999998</v>
+        <v>285.33999999999997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>5570</v>
+        <v>1930</v>
       </c>
       <c r="B17">
-        <v>202.55511669658887</v>
+        <v>182.43160621761658</v>
       </c>
       <c r="C17">
-        <v>287.77845601436263</v>
+        <v>352.73264248704663</v>
       </c>
       <c r="D17">
-        <v>159.5</v>
+        <v>143.5</v>
       </c>
       <c r="E17">
-        <v>188.5</v>
+        <v>302.5</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="H17">
-        <v>79.82219352148725</v>
+        <v>-52.872494685947672</v>
       </c>
       <c r="I17">
-        <v>682.97799999999995</v>
+        <v>288.85399999999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>5213</v>
+        <v>1999</v>
       </c>
       <c r="B18">
-        <v>202.97314406291963</v>
+        <v>181.57128564282141</v>
       </c>
       <c r="C18">
-        <v>287.11797429503167</v>
+        <v>351.15757878939468</v>
       </c>
       <c r="D18">
-        <v>160.5</v>
+        <v>141.5</v>
       </c>
       <c r="E18">
-        <v>188.5</v>
+        <v>301.5</v>
       </c>
       <c r="F18">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G18">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="H18">
-        <v>79.107212398544007</v>
+        <v>-53.035473058629599</v>
       </c>
       <c r="I18">
-        <v>635.20099999999991</v>
+        <v>298.66299999999995</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4989</v>
+        <v>2024</v>
       </c>
       <c r="B19">
-        <v>203.08659049909801</v>
+        <v>179.26877470355731</v>
       </c>
       <c r="C19">
-        <v>288.64261375025058</v>
+        <v>348.42687747035575</v>
       </c>
       <c r="D19">
-        <v>161.5</v>
+        <v>134.5</v>
       </c>
       <c r="E19">
-        <v>184.5</v>
+        <v>291.5</v>
       </c>
       <c r="F19">
         <v>84</v>
       </c>
       <c r="G19">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="H19">
-        <v>79.82186854782357</v>
+        <v>-52.371077070145631</v>
       </c>
       <c r="I19">
-        <v>659.96399999999994</v>
+        <v>311.25899999999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4919</v>
+        <v>2018</v>
       </c>
       <c r="B20">
-        <v>202.59707257572677</v>
+        <v>177.52576808721506</v>
       </c>
       <c r="C20">
-        <v>287.17971132343973</v>
+        <v>347.24033696729435</v>
       </c>
       <c r="D20">
-        <v>164.5</v>
+        <v>129.5</v>
       </c>
       <c r="E20">
-        <v>187.5</v>
+        <v>294.5</v>
       </c>
       <c r="F20">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G20">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="H20">
-        <v>80.077228495961492</v>
+        <v>-52.045352321838322</v>
       </c>
       <c r="I20">
-        <v>611.755</v>
+        <v>314.92199999999997</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>5306</v>
+        <v>2087</v>
       </c>
       <c r="B21">
-        <v>203.05710516396533</v>
+        <v>176.72352659319597</v>
       </c>
       <c r="C21">
-        <v>286.99415755748208</v>
+        <v>346.55869669381889</v>
       </c>
       <c r="D21">
-        <v>159.5</v>
+        <v>126.5</v>
       </c>
       <c r="E21">
-        <v>189.5</v>
+        <v>291.5</v>
       </c>
       <c r="F21">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="H21">
-        <v>79.914865681601952</v>
+        <v>-51.780024453634717</v>
       </c>
       <c r="I21">
-        <v>640.15499999999997</v>
+        <v>331.14099999999996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>5470</v>
+        <v>2067</v>
       </c>
       <c r="B22">
-        <v>204.42285191956125</v>
+        <v>176.93130140299951</v>
       </c>
       <c r="C22">
-        <v>283.65228519195614</v>
+        <v>347.02322206095789</v>
       </c>
       <c r="D22">
-        <v>167.5</v>
+        <v>127.5</v>
       </c>
       <c r="E22">
-        <v>179.5</v>
+        <v>293.5</v>
       </c>
       <c r="F22">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G22">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="H22">
-        <v>79.479254709455788</v>
+        <v>-51.414911784789624</v>
       </c>
       <c r="I22">
-        <v>634.89499999999998</v>
+        <v>321.58799999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>5535</v>
+        <v>1933</v>
       </c>
       <c r="B23">
-        <v>204.61391147244805</v>
+        <v>177.56130367304706</v>
       </c>
       <c r="C23">
-        <v>280.75248419150859</v>
+        <v>347.57423693740299</v>
       </c>
       <c r="D23">
-        <v>166.5</v>
+        <v>127.5</v>
       </c>
       <c r="E23">
-        <v>174.5</v>
+        <v>292.5</v>
       </c>
       <c r="F23">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="H23">
-        <v>78.970719863222868</v>
+        <v>-51.142807867008358</v>
       </c>
       <c r="I23">
-        <v>629.76700000000005</v>
+        <v>329.065</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>5355</v>
+        <v>2177</v>
       </c>
       <c r="B24">
-        <v>204.54285714285714</v>
+        <v>175.33164905833715</v>
       </c>
       <c r="C24">
-        <v>282.16507936507935</v>
+        <v>344.73311897106112</v>
       </c>
       <c r="D24">
-        <v>161.5</v>
+        <v>127.5</v>
       </c>
       <c r="E24">
-        <v>181.5</v>
+        <v>286.5</v>
       </c>
       <c r="F24">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="H24">
-        <v>79.10579157995717</v>
+        <v>-51.185963849921798</v>
       </c>
       <c r="I24">
-        <v>642.24599999999998</v>
+        <v>347.53100000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5314</v>
+        <v>2075</v>
       </c>
       <c r="B25">
-        <v>204.88106887467069</v>
+        <v>175.30843373493977</v>
       </c>
       <c r="C25">
-        <v>282.28076778321417</v>
+        <v>345.6009638554217</v>
       </c>
       <c r="D25">
-        <v>162.5</v>
+        <v>124.5</v>
       </c>
       <c r="E25">
-        <v>173.5</v>
+        <v>291.5</v>
       </c>
       <c r="F25">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G25">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="H25">
-        <v>78.678897709675624</v>
+        <v>-50.098879023409232</v>
       </c>
       <c r="I25">
-        <v>660.65700000000004</v>
+        <v>337.23599999999993</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>5319</v>
+        <v>2141</v>
       </c>
       <c r="B26">
-        <v>206.7734536567024</v>
+        <v>174.36898645492761</v>
       </c>
       <c r="C26">
-        <v>277.56683587140441</v>
+        <v>343.78047641289118</v>
       </c>
       <c r="D26">
-        <v>167.5</v>
+        <v>124.5</v>
       </c>
       <c r="E26">
-        <v>160.5</v>
+        <v>285.5</v>
       </c>
       <c r="F26">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G26">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="H26">
-        <v>78.192981243867919</v>
+        <v>-49.784790362517271</v>
       </c>
       <c r="I26">
-        <v>648.95500000000004</v>
+        <v>343.14099999999996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5186</v>
+        <v>2127</v>
       </c>
       <c r="B27">
-        <v>206.81141534901658</v>
+        <v>173.69299482839679</v>
       </c>
       <c r="C27">
-        <v>277.32510605476284</v>
+        <v>343.18288669487544</v>
       </c>
       <c r="D27">
-        <v>167.5</v>
+        <v>126.5</v>
       </c>
       <c r="E27">
-        <v>159.5</v>
+        <v>286.5</v>
       </c>
       <c r="F27">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="H27">
-        <v>78.456486929545747</v>
+        <v>-49.938611854411349</v>
       </c>
       <c r="I27">
-        <v>642.2059999999999</v>
+        <v>343.18200000000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>5241</v>
+        <v>2108</v>
       </c>
       <c r="B28">
-        <v>206.2738027094066</v>
+        <v>171.44259962049335</v>
       </c>
       <c r="C28">
-        <v>276.95802327800038</v>
+        <v>341.30787476280835</v>
       </c>
       <c r="D28">
-        <v>166.5</v>
+        <v>121.5</v>
       </c>
       <c r="E28">
-        <v>164.5</v>
+        <v>283.5</v>
       </c>
       <c r="F28">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G28">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="H28">
-        <v>78.780442644459839</v>
+        <v>-49.406949362430808</v>
       </c>
       <c r="I28">
-        <v>657.62100000000009</v>
+        <v>341.322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5276</v>
+        <v>2285</v>
       </c>
       <c r="B29">
-        <v>206.29852160727825</v>
+        <v>170.49978118161926</v>
       </c>
       <c r="C29">
-        <v>276.44711902956783</v>
+        <v>340.11816192560173</v>
       </c>
       <c r="D29">
-        <v>162.5</v>
+        <v>122.5</v>
       </c>
       <c r="E29">
-        <v>157.5</v>
+        <v>279.5</v>
       </c>
       <c r="F29">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G29">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="H29">
-        <v>78.816625647787262</v>
+        <v>-49.757282134488143</v>
       </c>
       <c r="I29">
-        <v>666.81799999999998</v>
+        <v>360.46699999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>4989</v>
+        <v>2294</v>
       </c>
       <c r="B30">
-        <v>205.72218881539388</v>
+        <v>171.45771578029644</v>
       </c>
       <c r="C30">
-        <v>279.56985367809182</v>
+        <v>341.0043591979076</v>
       </c>
       <c r="D30">
-        <v>165.5</v>
+        <v>123.5</v>
       </c>
       <c r="E30">
-        <v>164.5</v>
+        <v>281.5</v>
       </c>
       <c r="F30">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G30">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="H30">
-        <v>79.228681808637774</v>
+        <v>-49.952871181763193</v>
       </c>
       <c r="I30">
-        <v>652.62599999999986</v>
+        <v>354.23899999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4731</v>
+        <v>2424</v>
       </c>
       <c r="B31">
-        <v>205.23863876558866</v>
+        <v>170.61221122112212</v>
       </c>
       <c r="C31">
-        <v>278.55485098287886</v>
+        <v>339.80115511551156</v>
       </c>
       <c r="D31">
-        <v>167.5</v>
+        <v>121.5</v>
       </c>
       <c r="E31">
-        <v>161.5</v>
+        <v>279.5</v>
       </c>
       <c r="F31">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G31">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="H31">
-        <v>78.534554932753807</v>
+        <v>-50.506140588771068</v>
       </c>
       <c r="I31">
-        <v>640.64399999999989</v>
+        <v>360.20999999999998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4172</v>
+        <v>2371</v>
       </c>
       <c r="B32">
-        <v>204.49904122722916</v>
+        <v>170.12948123154786</v>
       </c>
       <c r="C32">
-        <v>282.24448705656761</v>
+        <v>339.86250527203714</v>
       </c>
       <c r="D32">
-        <v>169.5</v>
+        <v>121.5</v>
       </c>
       <c r="E32">
-        <v>162.5</v>
+        <v>280.5</v>
       </c>
       <c r="F32">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G32">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="H32">
-        <v>78.551581331318786</v>
+        <v>-49.810197064950444</v>
       </c>
       <c r="I32">
-        <v>621.03499999999997</v>
+        <v>370.97800000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4952</v>
+        <v>2442</v>
       </c>
       <c r="B33">
-        <v>205.31663974151857</v>
+        <v>168.54135954135955</v>
       </c>
       <c r="C33">
-        <v>278.60864297253636</v>
+        <v>337.95782145782147</v>
       </c>
       <c r="D33">
-        <v>168.5</v>
+        <v>118.5</v>
       </c>
       <c r="E33">
-        <v>160.5</v>
+        <v>276.5</v>
       </c>
       <c r="F33">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G33">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="H33">
-        <v>78.588376050313954</v>
+        <v>-50.000711042287911</v>
       </c>
       <c r="I33">
-        <v>645.22500000000002</v>
+        <v>383.35099999999994</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4887</v>
+        <v>2396</v>
       </c>
       <c r="B34">
-        <v>205.58358911397585</v>
+        <v>168.02253756260433</v>
       </c>
       <c r="C34">
-        <v>276.85451197053408</v>
+        <v>337.5730383973289</v>
       </c>
       <c r="D34">
-        <v>168.5</v>
+        <v>115.5</v>
       </c>
       <c r="E34">
-        <v>158.5</v>
+        <v>270.5</v>
       </c>
       <c r="F34">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="H34">
-        <v>78.456835741014018</v>
+        <v>-49.99375540944876</v>
       </c>
       <c r="I34">
-        <v>627.99700000000007</v>
+        <v>400.51199999999994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>4901</v>
+        <v>2585</v>
       </c>
       <c r="B35">
-        <v>205.68843093246275</v>
+        <v>164.9485493230174</v>
       </c>
       <c r="C35">
-        <v>276.26872066925119</v>
+        <v>333.31218568665378</v>
       </c>
       <c r="D35">
-        <v>161.5</v>
+        <v>109.5</v>
       </c>
       <c r="E35">
-        <v>153.5</v>
+        <v>265.5</v>
       </c>
       <c r="F35">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G35">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="H35">
-        <v>78.287993239850351</v>
+        <v>-50.541754382164214</v>
       </c>
       <c r="I35">
-        <v>672.84899999999993</v>
+        <v>434.08799999999997</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>5100</v>
+        <v>2731</v>
       </c>
       <c r="B36">
-        <v>207.00882352941176</v>
+        <v>163.55437568656171</v>
       </c>
       <c r="C36">
-        <v>273.32117647058823</v>
+        <v>331.46832662028561</v>
       </c>
       <c r="D36">
-        <v>167.5</v>
+        <v>106.5</v>
       </c>
       <c r="E36">
-        <v>153.5</v>
+        <v>259.5</v>
       </c>
       <c r="F36">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G36">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="H36">
-        <v>77.748293729633119</v>
+        <v>-50.690048450223358</v>
       </c>
       <c r="I36">
-        <v>661.673</v>
+        <v>452.31700000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>5084</v>
+        <v>2526</v>
       </c>
       <c r="B37">
-        <v>206.85877261998425</v>
+        <v>163.95843230403801</v>
       </c>
       <c r="C37">
-        <v>271.73249409913456</v>
+        <v>332.05067300079179</v>
       </c>
       <c r="D37">
-        <v>165.5</v>
+        <v>100.5</v>
       </c>
       <c r="E37">
-        <v>153.5</v>
+        <v>259.5</v>
       </c>
       <c r="F37">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="G37">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="H37">
-        <v>77.543864111123085</v>
+        <v>-50.766596960496372</v>
       </c>
       <c r="I37">
-        <v>665.59399999999994</v>
+        <v>429.399</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>5174</v>
+        <v>2624</v>
       </c>
       <c r="B38">
-        <v>206.8484731349053</v>
+        <v>163.38681402439025</v>
       </c>
       <c r="C38">
-        <v>271.10958639350599</v>
+        <v>331.22942073170731</v>
       </c>
       <c r="D38">
-        <v>161.5</v>
+        <v>104.5</v>
       </c>
       <c r="E38">
-        <v>152.5</v>
+        <v>260.5</v>
       </c>
       <c r="F38">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G38">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="H38">
-        <v>77.343279551169317</v>
+        <v>-51.1363962375356</v>
       </c>
       <c r="I38">
-        <v>729.81200000000001</v>
+        <v>427.43999999999994</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>5250</v>
+        <v>2629</v>
       </c>
       <c r="B39">
-        <v>207.65104761904763</v>
+        <v>162.52377329783187</v>
       </c>
       <c r="C39">
-        <v>270.02019047619046</v>
+        <v>330.0041841004184</v>
       </c>
       <c r="D39">
-        <v>166.5</v>
+        <v>103.5</v>
       </c>
       <c r="E39">
-        <v>150.5</v>
+        <v>261.5</v>
       </c>
       <c r="F39">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G39">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="H39">
-        <v>77.912416433372968</v>
+        <v>-51.607175581365595</v>
       </c>
       <c r="I39">
-        <v>698.94099999999992</v>
+        <v>438.73599999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4898</v>
+        <v>2524</v>
       </c>
       <c r="B40">
-        <v>207.37015108207433</v>
+        <v>162.42789223454832</v>
       </c>
       <c r="C40">
-        <v>270.76704777460191</v>
+        <v>330.78169572107765</v>
       </c>
       <c r="D40">
-        <v>166.5</v>
+        <v>105.5</v>
       </c>
       <c r="E40">
-        <v>152.5</v>
+        <v>257.5</v>
       </c>
       <c r="F40">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G40">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="H40">
-        <v>77.606580178409445</v>
+        <v>-51.477903388211963</v>
       </c>
       <c r="I40">
-        <v>660.33500000000004</v>
+        <v>439.67100000000005</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>5174</v>
+        <v>2595</v>
       </c>
       <c r="B41">
-        <v>208.93235407808271</v>
+        <v>160.38612716763006</v>
       </c>
       <c r="C41">
-        <v>264.64959412446848</v>
+        <v>327.95953757225436</v>
       </c>
       <c r="D41">
-        <v>165.5</v>
+        <v>103.5</v>
       </c>
       <c r="E41">
-        <v>141.5</v>
+        <v>256.5</v>
       </c>
       <c r="F41">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G41">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="H41">
-        <v>77.455988609523317</v>
+        <v>-51.115768230313343</v>
       </c>
       <c r="I41">
-        <v>684.15199999999993</v>
+        <v>437.05699999999996</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4958</v>
+        <v>2955</v>
       </c>
       <c r="B42">
-        <v>209.13715207745059</v>
+        <v>160.99018612521149</v>
       </c>
       <c r="C42">
-        <v>266.21097216619603</v>
+        <v>328.94619289340102</v>
       </c>
       <c r="D42">
-        <v>168.5</v>
+        <v>104.5</v>
       </c>
       <c r="E42">
-        <v>144.5</v>
+        <v>257.5</v>
       </c>
       <c r="F42">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G42">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="H42">
-        <v>77.596376169058217</v>
+        <v>-50.808795510204625</v>
       </c>
       <c r="I42">
-        <v>676.71800000000007</v>
+        <v>440.99399999999997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4874</v>
+        <v>2989</v>
       </c>
       <c r="B43">
-        <v>209.05560114895363</v>
+        <v>159.90130478420878</v>
       </c>
       <c r="C43">
-        <v>266.86109971276159</v>
+        <v>327.85747741719638</v>
       </c>
       <c r="D43">
-        <v>171.5</v>
+        <v>102.5</v>
       </c>
       <c r="E43">
-        <v>139.5</v>
+        <v>253.5</v>
       </c>
       <c r="F43">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G43">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="H43">
-        <v>77.548622073043575</v>
+        <v>-51.104146346041595</v>
       </c>
       <c r="I43">
-        <v>700.27999999999986</v>
+        <v>455.96299999999991</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>5240</v>
+        <v>3011</v>
       </c>
       <c r="B44">
-        <v>209.74293893129772</v>
+        <v>159.03819329126537</v>
       </c>
       <c r="C44">
-        <v>263.02576335877865</v>
+        <v>327.04815675855195</v>
       </c>
       <c r="D44">
-        <v>168.5</v>
+        <v>102.5</v>
       </c>
       <c r="E44">
-        <v>135.5</v>
+        <v>253.5</v>
       </c>
       <c r="F44">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G44">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="H44">
-        <v>77.180629166509476</v>
+        <v>-51.207068979110353</v>
       </c>
       <c r="I44">
-        <v>732.37499999999989</v>
+        <v>474.54499999999996</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4682</v>
+        <v>2643</v>
       </c>
       <c r="B45">
-        <v>209.32058949167023</v>
+        <v>159.94324631101023</v>
       </c>
       <c r="C45">
-        <v>266.76569841947884</v>
+        <v>328.10631857737417</v>
       </c>
       <c r="D45">
-        <v>166.5</v>
+        <v>103.5</v>
       </c>
       <c r="E45">
-        <v>138.5</v>
+        <v>254.5</v>
       </c>
       <c r="F45">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G45">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="H45">
-        <v>77.379264209169506</v>
+        <v>-51.110347036236213</v>
       </c>
       <c r="I45">
-        <v>707.47400000000005</v>
+        <v>445.49299999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>4679</v>
+        <v>2651</v>
       </c>
       <c r="B46">
-        <v>209.61572985680701</v>
+        <v>158.70652583930593</v>
       </c>
       <c r="C46">
-        <v>263.95020303483648</v>
+        <v>326.27084119200299</v>
       </c>
       <c r="D46">
-        <v>170.5</v>
+        <v>101.5</v>
       </c>
       <c r="E46">
-        <v>139.5</v>
+        <v>252.5</v>
       </c>
       <c r="F46">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G46">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="H46">
-        <v>77.060648665495805</v>
+        <v>-51.516368046468749</v>
       </c>
       <c r="I46">
-        <v>666.10699999999997</v>
+        <v>454.89799999999997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>5207</v>
+        <v>2765</v>
       </c>
       <c r="B47">
-        <v>210.58286921451892</v>
+        <v>158.0871609403255</v>
       </c>
       <c r="C47">
-        <v>260.4860764355675</v>
+        <v>325.68752260397832</v>
       </c>
       <c r="D47">
-        <v>171.5</v>
+        <v>100.5</v>
       </c>
       <c r="E47">
-        <v>128.5</v>
+        <v>251.5</v>
       </c>
       <c r="F47">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G47">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="H47">
-        <v>77.305544183801729</v>
+        <v>-51.394722431933836</v>
       </c>
       <c r="I47">
-        <v>726.803</v>
+        <v>455.14499999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5131</v>
+        <v>2885</v>
       </c>
       <c r="B48">
-        <v>210.62346521145975</v>
+        <v>157.72097053726171</v>
       </c>
       <c r="C48">
-        <v>258.63886182030791</v>
+        <v>325.35701906412476</v>
       </c>
       <c r="D48">
-        <v>168.5</v>
+        <v>102.5</v>
       </c>
       <c r="E48">
-        <v>132.5</v>
+        <v>249.5</v>
       </c>
       <c r="F48">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G48">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="H48">
-        <v>77.142141812394968</v>
+        <v>-51.168759209495768</v>
       </c>
       <c r="I48">
-        <v>699.16300000000001</v>
+        <v>455.63099999999997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>5346</v>
+        <v>2613</v>
       </c>
       <c r="B49">
-        <v>210.54601571268239</v>
+        <v>157.05625717566016</v>
       </c>
       <c r="C49">
-        <v>260.08342686120466</v>
+        <v>324.24684270952929</v>
       </c>
       <c r="D49">
-        <v>171.5</v>
+        <v>102.5</v>
       </c>
       <c r="E49">
-        <v>134.5</v>
+        <v>246.5</v>
       </c>
       <c r="F49">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G49">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="H49">
-        <v>77.05259792075455</v>
+        <v>-51.931071329032157</v>
       </c>
       <c r="I49">
-        <v>719.95399999999995</v>
+        <v>448.88399999999996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>5413</v>
+        <v>2807</v>
       </c>
       <c r="B50">
-        <v>209.73711435433216</v>
+        <v>155.22230138938369</v>
       </c>
       <c r="C50">
-        <v>261.52928135968966</v>
+        <v>323.19486996793728</v>
       </c>
       <c r="D50">
-        <v>159.5</v>
+        <v>102.5</v>
       </c>
       <c r="E50">
-        <v>133.5</v>
+        <v>246.5</v>
       </c>
       <c r="F50">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G50">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="H50">
-        <v>76.773732082422498</v>
+        <v>-51.557014543706089</v>
       </c>
       <c r="I50">
-        <v>742.05400000000009</v>
+        <v>453.74699999999996</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>4913</v>
+        <v>2832</v>
       </c>
       <c r="B51">
-        <v>210.71341339303888</v>
+        <v>154.46257062146893</v>
       </c>
       <c r="C51">
-        <v>258.01119478933441</v>
+        <v>322.1875</v>
       </c>
       <c r="D51">
-        <v>171.5</v>
+        <v>101.5</v>
       </c>
       <c r="E51">
-        <v>125.5</v>
+        <v>243.5</v>
       </c>
       <c r="F51">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G51">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="H51">
-        <v>76.618603227443145</v>
+        <v>-51.70149680208462</v>
       </c>
       <c r="I51">
-        <v>716.79599999999994</v>
+        <v>461.02299999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>4589</v>
+        <v>3262</v>
       </c>
       <c r="B52">
-        <v>212.28176073218566</v>
+        <v>153.76670754138564</v>
       </c>
       <c r="C52">
-        <v>253.65983874482458</v>
+        <v>320.0916615573268</v>
       </c>
       <c r="D52">
-        <v>174.5</v>
+        <v>100.5</v>
       </c>
       <c r="E52">
-        <v>118.5</v>
+        <v>240.5</v>
       </c>
       <c r="F52">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G52">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="H52">
-        <v>76.262583415225905</v>
+        <v>-52.106002733258414</v>
       </c>
       <c r="I52">
-        <v>720.68299999999999</v>
+        <v>467.83800000000002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>4643</v>
+        <v>3294</v>
       </c>
       <c r="B53">
-        <v>211.79625242300236</v>
+        <v>153.21341833636916</v>
       </c>
       <c r="C53">
-        <v>255.64268791729486</v>
+        <v>319.81177899210684</v>
       </c>
       <c r="D53">
-        <v>173.5</v>
+        <v>102.5</v>
       </c>
       <c r="E53">
-        <v>121.5</v>
+        <v>241.5</v>
       </c>
       <c r="F53">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G53">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="H53">
-        <v>75.957452463594237</v>
+        <v>-52.219431675743053</v>
       </c>
       <c r="I53">
-        <v>716.23299999999995</v>
+        <v>483.21300000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4653</v>
+        <v>3217</v>
       </c>
       <c r="B54">
-        <v>212.91360412637007</v>
+        <v>153.00373018340068</v>
       </c>
       <c r="C54">
-        <v>254.18676122931441</v>
+        <v>319.55610817531863</v>
       </c>
       <c r="D54">
-        <v>174.5</v>
+        <v>100.5</v>
       </c>
       <c r="E54">
-        <v>118.5</v>
+        <v>239.5</v>
       </c>
       <c r="F54">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G54">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="H54">
-        <v>75.34888720284647</v>
+        <v>-52.264036756412104</v>
       </c>
       <c r="I54">
-        <v>714.18099999999993</v>
+        <v>480.05399999999997</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4517</v>
+        <v>3233</v>
       </c>
       <c r="B55">
-        <v>213.00996236440116</v>
+        <v>153.77822455923291</v>
       </c>
       <c r="C55">
-        <v>253.58290901040513</v>
+        <v>320.27002783792142</v>
       </c>
       <c r="D55">
-        <v>173.5</v>
+        <v>102.5</v>
       </c>
       <c r="E55">
-        <v>120.5</v>
+        <v>239.5</v>
       </c>
       <c r="F55">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G55">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="H55">
-        <v>75.276655345329999</v>
+        <v>-52.164289411372685</v>
       </c>
       <c r="I55">
-        <v>692.48900000000003</v>
+        <v>475.04199999999997</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>5220</v>
+        <v>3273</v>
       </c>
       <c r="B56">
-        <v>214.47586206896551</v>
+        <v>152.46410021387106</v>
       </c>
       <c r="C56">
-        <v>247.76494252873565</v>
+        <v>319.08829819737247</v>
       </c>
       <c r="D56">
-        <v>173.5</v>
+        <v>100.5</v>
       </c>
       <c r="E56">
-        <v>115.5</v>
+        <v>235.5</v>
       </c>
       <c r="F56">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="G56">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="H56">
-        <v>76.629695248791421</v>
+        <v>-52.40855103466852</v>
       </c>
       <c r="I56">
-        <v>735.02999999999997</v>
+        <v>481.79799999999994</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>5411</v>
+        <v>3201</v>
       </c>
       <c r="B57">
-        <v>215.50803917944927</v>
+        <v>153.17525773195877</v>
       </c>
       <c r="C57">
-        <v>245.46146738126041</v>
+        <v>319.07497656982196</v>
       </c>
       <c r="D57">
-        <v>172.5</v>
+        <v>100.5</v>
       </c>
       <c r="E57">
-        <v>112.5</v>
+        <v>233.5</v>
       </c>
       <c r="F57">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G57">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="H57">
-        <v>76.249825913174433</v>
+        <v>-52.595549697141429</v>
       </c>
       <c r="I57">
-        <v>763.98599999999999</v>
+        <v>494.89899999999994</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>5279</v>
+        <v>3179</v>
       </c>
       <c r="B58">
-        <v>216.23640841068385</v>
+        <v>151.89147530670022</v>
       </c>
       <c r="C58">
-        <v>242.82250426217087</v>
+        <v>317.33721296005035</v>
       </c>
       <c r="D58">
-        <v>173.5</v>
+        <v>102.5</v>
       </c>
       <c r="E58">
-        <v>108.5</v>
+        <v>233.5</v>
       </c>
       <c r="F58">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G58">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="H58">
-        <v>75.971949275636902</v>
+        <v>-52.589184642686803</v>
       </c>
       <c r="I58">
-        <v>746.12899999999991</v>
+        <v>497.94200000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4079</v>
+        <v>3266</v>
       </c>
       <c r="B59">
-        <v>215.17013974013238</v>
+        <v>151.14145744029395</v>
       </c>
       <c r="C59">
-        <v>246.75802892865897</v>
+        <v>314.69473361910593</v>
       </c>
       <c r="D59">
-        <v>173.5</v>
+        <v>100.5</v>
       </c>
       <c r="E59">
-        <v>99.5</v>
+        <v>219.5</v>
       </c>
       <c r="F59">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="G59">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="H59">
-        <v>75.717279682476217</v>
+        <v>-53.828844880154037</v>
       </c>
       <c r="I59">
-        <v>735.81599999999992</v>
+        <v>528.01299999999992</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4738</v>
+        <v>3241</v>
       </c>
       <c r="B60">
-        <v>217.064584212748</v>
+        <v>151.35297747608763</v>
       </c>
       <c r="C60">
-        <v>240.93203883495147</v>
+        <v>315.22616476396172</v>
       </c>
       <c r="D60">
-        <v>173.5</v>
+        <v>99.5</v>
       </c>
       <c r="E60">
-        <v>99.5</v>
+        <v>223.5</v>
       </c>
       <c r="F60">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G60">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="H60">
-        <v>75.988390121620142</v>
+        <v>-53.855028910828942</v>
       </c>
       <c r="I60">
-        <v>742.55700000000002</v>
+        <v>507.88999999999993</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>5121</v>
+        <v>2924</v>
       </c>
       <c r="B61">
-        <v>218.05780121070103</v>
+        <v>150.58002735978113</v>
       </c>
       <c r="C61">
-        <v>238.43663347002538</v>
+        <v>313.64192886456908</v>
       </c>
       <c r="D61">
-        <v>172.5</v>
+        <v>99.5</v>
       </c>
       <c r="E61">
-        <v>96.5</v>
+        <v>220.5</v>
       </c>
       <c r="F61">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G61">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="H61">
-        <v>75.750100777278803</v>
+        <v>-53.992334482151016</v>
       </c>
       <c r="I61">
-        <v>792.16200000000003</v>
+        <v>514.68900000000008</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>5234</v>
+        <v>2999</v>
       </c>
       <c r="B62">
-        <v>218.21303018723731</v>
+        <v>151.35578526175391</v>
       </c>
       <c r="C62">
-        <v>238.16813144822316</v>
+        <v>314.3074358119373</v>
       </c>
       <c r="D62">
-        <v>172.5</v>
+        <v>100.5</v>
       </c>
       <c r="E62">
-        <v>91.5</v>
+        <v>219.5</v>
       </c>
       <c r="F62">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G62">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="H62">
-        <v>75.772546038490148</v>
+        <v>-54.49445102373376</v>
       </c>
       <c r="I62">
-        <v>790.06099999999992</v>
+        <v>505.54300000000006</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>5266</v>
+        <v>2880</v>
       </c>
       <c r="B63">
-        <v>217.973604253703</v>
+        <v>150.93541666666667</v>
       </c>
       <c r="C63">
-        <v>240.66672996581846</v>
+        <v>312.79722222222222</v>
       </c>
       <c r="D63">
-        <v>172.5</v>
+        <v>100.5</v>
       </c>
       <c r="E63">
-        <v>95.5</v>
+        <v>216.5</v>
       </c>
       <c r="F63">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G63">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="H63">
-        <v>76.072751353542429</v>
+        <v>-54.796131303250625</v>
       </c>
       <c r="I63">
-        <v>791.673</v>
+        <v>523.62199999999996</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>5310</v>
+        <v>3627</v>
       </c>
       <c r="B64">
-        <v>219.04745762711863</v>
+        <v>147.4676040805073</v>
       </c>
       <c r="C64">
-        <v>236.97476459510358</v>
+        <v>307.77584780810588</v>
       </c>
       <c r="D64">
-        <v>173.5</v>
+        <v>98.5</v>
       </c>
       <c r="E64">
-        <v>95.5</v>
+        <v>208.5</v>
       </c>
       <c r="F64">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G64">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="H64">
-        <v>75.871949831235156</v>
+        <v>-56.45983898790417</v>
       </c>
       <c r="I64">
-        <v>795.827</v>
+        <v>551.03800000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>5505</v>
+        <v>3635</v>
       </c>
       <c r="B65">
-        <v>218.1024523160763</v>
+        <v>148.77359009628611</v>
       </c>
       <c r="C65">
-        <v>239.05231607629429</v>
+        <v>308.54030261348004</v>
       </c>
       <c r="D65">
-        <v>159.5</v>
+        <v>99.5</v>
       </c>
       <c r="E65">
-        <v>92.5</v>
+        <v>209.5</v>
       </c>
       <c r="F65">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G65">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="H65">
-        <v>75.80748848781468</v>
+        <v>-56.473833497021197</v>
       </c>
       <c r="I65">
-        <v>831.60199999999998</v>
+        <v>542.26200000000006</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>5533</v>
+        <v>3634</v>
       </c>
       <c r="B66">
-        <v>219.7697451653714</v>
+        <v>147.63676389653276</v>
       </c>
       <c r="C66">
-        <v>234.46231700704863</v>
+        <v>306.921574023115</v>
       </c>
       <c r="D66">
-        <v>173.5</v>
+        <v>99.5</v>
       </c>
       <c r="E66">
-        <v>87.5</v>
+        <v>208.5</v>
       </c>
       <c r="F66">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G66">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="H66">
-        <v>75.703593862789333</v>
+        <v>-56.871341034722867</v>
       </c>
       <c r="I66">
-        <v>822.89300000000003</v>
+        <v>541.04599999999994</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>5227</v>
+        <v>3875</v>
       </c>
       <c r="B67">
-        <v>218.12014539889037</v>
+        <v>147.21677419354839</v>
       </c>
       <c r="C67">
-        <v>238.82781710350105</v>
+        <v>304.4913548387097</v>
       </c>
       <c r="D67">
-        <v>159.5</v>
+        <v>100.5</v>
       </c>
       <c r="E67">
-        <v>89.5</v>
+        <v>203.5</v>
       </c>
       <c r="F67">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G67">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="H67">
-        <v>75.536803414150441</v>
+        <v>-58.050359677883677</v>
       </c>
       <c r="I67">
-        <v>817.41100000000006</v>
+        <v>553.76599999999996</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4780</v>
+        <v>3688</v>
       </c>
       <c r="B68">
-        <v>217.5510460251046</v>
+        <v>147.16811279826464</v>
       </c>
       <c r="C68">
-        <v>240.27029288702929</v>
+        <v>304.43492407809111</v>
       </c>
       <c r="D68">
-        <v>173.5</v>
+        <v>100.5</v>
       </c>
       <c r="E68">
-        <v>93.5</v>
+        <v>203.5</v>
       </c>
       <c r="F68">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G68">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="H68">
-        <v>75.666305504628426</v>
+        <v>-57.79350570532236</v>
       </c>
       <c r="I68">
-        <v>786.24099999999999</v>
+        <v>554.71699999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>5328</v>
+        <v>3667</v>
       </c>
       <c r="B69">
-        <v>218.69219219219218</v>
+        <v>146.99509135533134</v>
       </c>
       <c r="C69">
-        <v>236.35660660660662</v>
+        <v>305.42405235887645</v>
       </c>
       <c r="D69">
-        <v>162.5</v>
+        <v>100.5</v>
       </c>
       <c r="E69">
-        <v>87.5</v>
+        <v>203.5</v>
       </c>
       <c r="F69">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G69">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="H69">
-        <v>75.287729919368701</v>
+        <v>-57.733566702471151</v>
       </c>
       <c r="I69">
-        <v>850.11899999999991</v>
+        <v>565.43499999999995</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>5321</v>
+        <v>3446</v>
       </c>
       <c r="B70">
-        <v>218.57808682578462</v>
+        <v>147.60243760882182</v>
       </c>
       <c r="C70">
-        <v>236.5162563427927</v>
+        <v>305.805571677307</v>
       </c>
       <c r="D70">
-        <v>172.5</v>
+        <v>103.5</v>
       </c>
       <c r="E70">
-        <v>78.5</v>
+        <v>205.5</v>
       </c>
       <c r="F70">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G70">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="H70">
-        <v>75.173571754674953</v>
+        <v>-57.256417230691333</v>
       </c>
       <c r="I70">
-        <v>802.13599999999997</v>
+        <v>544.68700000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>5526</v>
+        <v>3681</v>
       </c>
       <c r="B71">
-        <v>218.99384726746291</v>
+        <v>147.61477859277369</v>
       </c>
       <c r="C71">
-        <v>236.02316322837495</v>
+        <v>305.99429502852485</v>
       </c>
       <c r="D71">
-        <v>172.5</v>
+        <v>100.5</v>
       </c>
       <c r="E71">
-        <v>75.5</v>
+        <v>202.5</v>
       </c>
       <c r="F71">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G71">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="H71">
-        <v>75.281258357579489</v>
+        <v>-57.876620190076316</v>
       </c>
       <c r="I71">
-        <v>836.95300000000009</v>
+        <v>558.45600000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>5343</v>
+        <v>3627</v>
       </c>
       <c r="B72">
-        <v>218.33801235261089</v>
+        <v>147.29418251998896</v>
       </c>
       <c r="C72">
-        <v>239.87797117724125</v>
+        <v>304.7631651502619</v>
       </c>
       <c r="D72">
-        <v>172.5</v>
+        <v>100.5</v>
       </c>
       <c r="E72">
-        <v>81.5</v>
+        <v>200.5</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G72">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="H72">
-        <v>75.449456167248599</v>
+        <v>-58.497274079512643</v>
       </c>
       <c r="I72">
-        <v>816.41800000000001</v>
+        <v>562.53999999999996</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4683</v>
+        <v>3857</v>
       </c>
       <c r="B73">
-        <v>218.63399530215673</v>
+        <v>145.79725175006482</v>
       </c>
       <c r="C73">
-        <v>236.48494554772583</v>
+        <v>302.85792066372829</v>
       </c>
       <c r="D73">
-        <v>173.5</v>
+        <v>99.5</v>
       </c>
       <c r="E73">
-        <v>74.5</v>
+        <v>200.5</v>
       </c>
       <c r="F73">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G73">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="H73">
-        <v>75.157444798840487</v>
+        <v>-58.692169712677156</v>
       </c>
       <c r="I73">
-        <v>780.49199999999996</v>
+        <v>576.41899999999998</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>5538</v>
+        <v>4160</v>
       </c>
       <c r="B74">
-        <v>219.52112676056339</v>
+        <v>145.80120192307692</v>
       </c>
       <c r="C74">
-        <v>234.45539906103286</v>
+        <v>302.54134615384618</v>
       </c>
       <c r="D74">
-        <v>167.5</v>
+        <v>98.5</v>
       </c>
       <c r="E74">
-        <v>69.5</v>
+        <v>199.5</v>
       </c>
       <c r="F74">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G74">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="H74">
-        <v>75.060192850718863</v>
+        <v>-59.048997106567178</v>
       </c>
       <c r="I74">
-        <v>840.53399999999988</v>
+        <v>587.72499999999991</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4975</v>
+        <v>3295</v>
       </c>
       <c r="B75">
-        <v>219.86331658291456</v>
+        <v>148.76843702579666</v>
       </c>
       <c r="C75">
-        <v>232.72964824120604</v>
+        <v>306.52625189681333</v>
       </c>
       <c r="D75">
-        <v>173.5</v>
+        <v>102.5</v>
       </c>
       <c r="E75">
-        <v>70.5</v>
+        <v>203.5</v>
       </c>
       <c r="F75">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G75">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="H75">
-        <v>74.774474502001837</v>
+        <v>-58.629401034952693</v>
       </c>
       <c r="I75">
-        <v>817.08899999999994</v>
+        <v>557.18200000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>5513</v>
+        <v>3197</v>
       </c>
       <c r="B76">
-        <v>220.42408851804825</v>
+        <v>147.86737566468565</v>
       </c>
       <c r="C76">
-        <v>233.31634318882641</v>
+        <v>303.92492962152016</v>
       </c>
       <c r="D76">
-        <v>172.5</v>
+        <v>101.5</v>
       </c>
       <c r="E76">
-        <v>67.5</v>
+        <v>199.5</v>
       </c>
       <c r="F76">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G76">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="H76">
-        <v>74.987601694071856</v>
+        <v>-59.091572819866691</v>
       </c>
       <c r="I76">
-        <v>841.02999999999986</v>
+        <v>561.17700000000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>5724</v>
+        <v>4121</v>
       </c>
       <c r="B77">
-        <v>220.68361285814117</v>
+        <v>145.5702499393351</v>
       </c>
       <c r="C77">
-        <v>234.68099231306778</v>
+        <v>300.21790827469061</v>
       </c>
       <c r="D77">
-        <v>172.5</v>
+        <v>95.5</v>
       </c>
       <c r="E77">
-        <v>71.5</v>
+        <v>196.5</v>
       </c>
       <c r="F77">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G77">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="H77">
-        <v>74.734636266431224</v>
+        <v>-60.014421204781328</v>
       </c>
       <c r="I77">
-        <v>865.6339999999999</v>
+        <v>590.10400000000004</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>5801</v>
+        <v>4240</v>
       </c>
       <c r="B78">
-        <v>220.7453887260817</v>
+        <v>144.5867924528302</v>
       </c>
       <c r="C78">
-        <v>234.245819686261</v>
+        <v>300.03207547169814</v>
       </c>
       <c r="D78">
-        <v>172.5</v>
+        <v>94.5</v>
       </c>
       <c r="E78">
-        <v>68.5</v>
+        <v>194.5</v>
       </c>
       <c r="F78">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G78">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="H78">
-        <v>74.714629391723363</v>
+        <v>-60.201219037593589</v>
       </c>
       <c r="I78">
-        <v>880.30499999999995</v>
+        <v>618.83699999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>5777</v>
+        <v>4195</v>
       </c>
       <c r="B79">
-        <v>222.06422018348624</v>
+        <v>144.27651966626937</v>
       </c>
       <c r="C79">
-        <v>229.23351220356585</v>
+        <v>298.76448152562574</v>
       </c>
       <c r="D79">
-        <v>171.5</v>
+        <v>95.5</v>
       </c>
       <c r="E79">
-        <v>63.5</v>
+        <v>194.5</v>
       </c>
       <c r="F79">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G79">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="H79">
-        <v>74.599373440261587</v>
+        <v>-60.726828961537102</v>
       </c>
       <c r="I79">
-        <v>860.39899999999989</v>
+        <v>622.00400000000002</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>5150</v>
+        <v>3969</v>
       </c>
       <c r="B80">
-        <v>221.50834951456309</v>
+        <v>143.93146888384985</v>
       </c>
       <c r="C80">
-        <v>232.52815533980583</v>
+        <v>297.24187452758883</v>
       </c>
       <c r="D80">
-        <v>172.5</v>
+        <v>93.5</v>
       </c>
       <c r="E80">
-        <v>69.5</v>
+        <v>190.5</v>
       </c>
       <c r="F80">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G80">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="H80">
-        <v>74.676154791083647</v>
+        <v>-60.488881302633153</v>
       </c>
       <c r="I80">
-        <v>827.19399999999996</v>
+        <v>622.60899999999992</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>5599</v>
+        <v>4022</v>
       </c>
       <c r="B81">
-        <v>221.57563850687623</v>
+        <v>144.52436598707112</v>
       </c>
       <c r="C81">
-        <v>232.2237899624933</v>
+        <v>298.24042764793637</v>
       </c>
       <c r="D81">
-        <v>172.5</v>
+        <v>93.5</v>
       </c>
       <c r="E81">
-        <v>66.5</v>
+        <v>189.5</v>
       </c>
       <c r="F81">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G81">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="H81">
-        <v>74.650566408681541</v>
+        <v>-61.169602445488984</v>
       </c>
       <c r="I81">
-        <v>871.80499999999995</v>
+        <v>624.05499999999995</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>5566</v>
+        <v>4286</v>
       </c>
       <c r="B82">
-        <v>221.13672296083362</v>
+        <v>143.55436304246385</v>
       </c>
       <c r="C82">
-        <v>232.67984189723319</v>
+        <v>297.09752683154454</v>
       </c>
       <c r="D82">
-        <v>172.5</v>
+        <v>94.5</v>
       </c>
       <c r="E82">
-        <v>64.5</v>
+        <v>188.5</v>
       </c>
       <c r="F82">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G82">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c r="H82">
-        <v>74.490695644243772</v>
+        <v>-61.261893263849643</v>
       </c>
       <c r="I82">
-        <v>880.827</v>
+        <v>634.38499999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>5518</v>
+        <v>4362</v>
       </c>
       <c r="B83">
-        <v>220.99057629575933</v>
+        <v>142.04447501146262</v>
       </c>
       <c r="C83">
-        <v>232.89706415367888</v>
+        <v>293.83837689133424</v>
       </c>
       <c r="D83">
-        <v>169.5</v>
+        <v>95.5</v>
       </c>
       <c r="E83">
-        <v>60.5</v>
+        <v>181.5</v>
       </c>
       <c r="F83">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G83">
-        <v>340</v>
+        <v>219</v>
       </c>
       <c r="H83">
-        <v>74.429883600782503</v>
+        <v>-61.900583934389076</v>
       </c>
       <c r="I83">
-        <v>886.82399999999996</v>
+        <v>630.298</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>5682</v>
+        <v>4508</v>
       </c>
       <c r="B84">
-        <v>221.64484336501232</v>
+        <v>142.61623779946763</v>
       </c>
       <c r="C84">
-        <v>231.26170362548399</v>
+        <v>293.05545696539485</v>
       </c>
       <c r="D84">
-        <v>172.5</v>
+        <v>90.5</v>
       </c>
       <c r="E84">
-        <v>60.5</v>
+        <v>179.5</v>
       </c>
       <c r="F84">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G84">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="H84">
-        <v>74.625701206179045</v>
+        <v>-62.274779981717778</v>
       </c>
       <c r="I84">
-        <v>897.27499999999998</v>
+        <v>658.28499999999997</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>5640</v>
+        <v>4162</v>
       </c>
       <c r="B85">
-        <v>221.8836879432624</v>
+        <v>138.5189812590101</v>
       </c>
       <c r="C85">
-        <v>229.64166666666668</v>
+        <v>287.39476213358961</v>
       </c>
       <c r="D85">
-        <v>173.5</v>
+        <v>93.5</v>
       </c>
       <c r="E85">
-        <v>58.5</v>
+        <v>182.5</v>
       </c>
       <c r="F85">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G85">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="H85">
-        <v>74.66879469551364</v>
+        <v>-62.652760686044786</v>
       </c>
       <c r="I85">
-        <v>912.50299999999993</v>
+        <v>639.52099999999996</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>5798</v>
+        <v>4172</v>
       </c>
       <c r="B86">
-        <v>221.72283546050363</v>
+        <v>144.08221476510067</v>
       </c>
       <c r="C86">
-        <v>229.0939979303208</v>
+        <v>294.87799616490889</v>
       </c>
       <c r="D86">
-        <v>169.5</v>
+        <v>93.5</v>
       </c>
       <c r="E86">
-        <v>57.5</v>
+        <v>180.5</v>
       </c>
       <c r="F86">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G86">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="H86">
-        <v>74.837691881988079</v>
+        <v>-61.935113536422371</v>
       </c>
       <c r="I86">
-        <v>912.96399999999994</v>
+        <v>632.15300000000002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>5821</v>
+        <v>4090</v>
       </c>
       <c r="B87">
-        <v>221.81601099467446</v>
+        <v>143.24645476772616</v>
       </c>
       <c r="C87">
-        <v>229.57653324171105</v>
+        <v>293.59731051344744</v>
       </c>
       <c r="D87">
-        <v>173.5</v>
+        <v>90.5</v>
       </c>
       <c r="E87">
-        <v>55.5</v>
+        <v>182.5</v>
       </c>
       <c r="F87">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G87">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="H87">
-        <v>74.924627812232728</v>
+        <v>-61.779824520975126</v>
       </c>
       <c r="I87">
-        <v>916.96799999999996</v>
+        <v>634.97200000000009</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>5413</v>
+        <v>3721</v>
       </c>
       <c r="B88">
-        <v>221.2519859597266</v>
+        <v>143.3066380005375</v>
       </c>
       <c r="C88">
-        <v>230.69259190836874</v>
+        <v>293.40902983069066</v>
       </c>
       <c r="D88">
-        <v>173.5</v>
+        <v>89.5</v>
       </c>
       <c r="E88">
-        <v>54.5</v>
+        <v>181.5</v>
       </c>
       <c r="F88">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G88">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c r="H88">
-        <v>74.772642949498632</v>
+        <v>-61.627913757699254</v>
       </c>
       <c r="I88">
-        <v>886.74099999999999</v>
+        <v>631.04399999999998</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>5558</v>
+        <v>3968</v>
       </c>
       <c r="B89">
-        <v>222.02356962936307</v>
+        <v>143.10912298387098</v>
       </c>
       <c r="C89">
-        <v>228.22544080604533</v>
+        <v>292.27847782258067</v>
       </c>
       <c r="D89">
-        <v>173.5</v>
+        <v>92.5</v>
       </c>
       <c r="E89">
-        <v>53.5</v>
+        <v>182.5</v>
       </c>
       <c r="F89">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G89">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="H89">
-        <v>74.738977062864137</v>
+        <v>-62.236229471940497</v>
       </c>
       <c r="I89">
-        <v>908.58199999999988</v>
+        <v>635.44399999999996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>5597</v>
+        <v>3925</v>
       </c>
       <c r="B90">
-        <v>223.22190459174558</v>
+        <v>141.3732484076433</v>
       </c>
       <c r="C90">
-        <v>226.14114704305879</v>
+        <v>291.2975796178344</v>
       </c>
       <c r="D90">
-        <v>174.5</v>
+        <v>89.5</v>
       </c>
       <c r="E90">
-        <v>53.5</v>
+        <v>179.5</v>
       </c>
       <c r="F90">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G90">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="H90">
-        <v>74.94934808512717</v>
+        <v>-62.223969453974838</v>
       </c>
       <c r="I90">
-        <v>890.17999999999995</v>
+        <v>632.16800000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>5573</v>
+        <v>4124</v>
       </c>
       <c r="B91">
-        <v>223.41073030683654</v>
+        <v>141.38724539282251</v>
       </c>
       <c r="C91">
-        <v>224.79023865063701</v>
+        <v>290.84093113482055</v>
       </c>
       <c r="D91">
-        <v>174.5</v>
+        <v>88.5</v>
       </c>
       <c r="E91">
-        <v>54.5</v>
+        <v>178.5</v>
       </c>
       <c r="F91">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G91">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="H91">
-        <v>74.769557355943334</v>
+        <v>-62.432360950672134</v>
       </c>
       <c r="I91">
-        <v>895.20000000000005</v>
+        <v>647.86599999999987</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>4815</v>
+        <v>4200</v>
       </c>
       <c r="B92">
-        <v>223.18712357217029</v>
+        <v>141.98666666666668</v>
       </c>
       <c r="C92">
-        <v>224.34434060228452</v>
+        <v>291.01238095238097</v>
       </c>
       <c r="D92">
-        <v>174.5</v>
+        <v>90.5</v>
       </c>
       <c r="E92">
-        <v>57.5</v>
+        <v>181.5</v>
       </c>
       <c r="F92">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G92">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="H92">
-        <v>74.444472981545147</v>
+        <v>-62.156014020336904</v>
       </c>
       <c r="I92">
-        <v>842.43600000000004</v>
+        <v>621.41699999999992</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>5584</v>
+        <v>4093</v>
       </c>
       <c r="B93">
-        <v>225.4394699140401</v>
+        <v>140.78426581969217</v>
       </c>
       <c r="C93">
-        <v>219.07521489971347</v>
+        <v>289.53725873442465</v>
       </c>
       <c r="D93">
-        <v>174.5</v>
+        <v>90.5</v>
       </c>
       <c r="E93">
-        <v>45.5</v>
+        <v>176.5</v>
       </c>
       <c r="F93">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G93">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="H93">
-        <v>74.6366460667452</v>
+        <v>-62.857999424491673</v>
       </c>
       <c r="I93">
-        <v>913.03800000000001</v>
+        <v>647.01499999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>5474</v>
+        <v>4215</v>
       </c>
       <c r="B94">
-        <v>225.11490683229815</v>
+        <v>140.51933570581258</v>
       </c>
       <c r="C94">
-        <v>217.15089514066497</v>
+        <v>288.45456702253853</v>
       </c>
       <c r="D94">
-        <v>173.5</v>
+        <v>88.5</v>
       </c>
       <c r="E94">
-        <v>50.5</v>
+        <v>177.5</v>
       </c>
       <c r="F94">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G94">
-        <v>350</v>
+        <v>223</v>
       </c>
       <c r="H94">
-        <v>74.268877130695358</v>
+        <v>-62.97548880704997</v>
       </c>
       <c r="I94">
-        <v>877.09800000000007</v>
+        <v>638.66899999999987</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>5452</v>
+        <v>4135</v>
       </c>
       <c r="B95">
-        <v>225.05025678650037</v>
+        <v>140.37122128174124</v>
       </c>
       <c r="C95">
-        <v>219.80190755685987</v>
+        <v>287.04401451027809</v>
       </c>
       <c r="D95">
-        <v>174.5</v>
+        <v>81.5</v>
       </c>
       <c r="E95">
-        <v>49.5</v>
+        <v>177.5</v>
       </c>
       <c r="F95">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G95">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="H95">
-        <v>74.561208680536652</v>
+        <v>-63.136033075814012</v>
       </c>
       <c r="I95">
-        <v>901.79099999999994</v>
+        <v>682.49199999999996</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>5873</v>
+        <v>4391</v>
       </c>
       <c r="B96">
-        <v>227.19598161076112</v>
+        <v>139.25848326121613</v>
       </c>
       <c r="C96">
-        <v>212.98229184403201</v>
+        <v>285.49191528125709</v>
       </c>
       <c r="D96">
+        <v>89.5</v>
+      </c>
+      <c r="E96">
         <v>172.5</v>
       </c>
-      <c r="E96">
-        <v>40.5</v>
-      </c>
       <c r="F96">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G96">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="H96">
-        <v>74.400083579025846</v>
+        <v>-63.962864498508239</v>
       </c>
       <c r="I96">
-        <v>971.81500000000005</v>
+        <v>686.50300000000004</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>5639</v>
+        <v>4155</v>
       </c>
       <c r="B97">
-        <v>226.99467990778507</v>
+        <v>138.94199759326114</v>
       </c>
       <c r="C97">
-        <v>212.24968966128748</v>
+        <v>284.31768953068593</v>
       </c>
       <c r="D97">
-        <v>174.5</v>
+        <v>91.5</v>
       </c>
       <c r="E97">
-        <v>41.5</v>
+        <v>167.5</v>
       </c>
       <c r="F97">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G97">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="H97">
-        <v>74.80133226765696</v>
+        <v>-64.164411288584247</v>
       </c>
       <c r="I97">
-        <v>927.71900000000005</v>
+        <v>700.39699999999993</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>5526</v>
+        <v>4176</v>
       </c>
       <c r="B98">
-        <v>226.60025334781034</v>
+        <v>141.37380268199234</v>
       </c>
       <c r="C98">
-        <v>214.41205211726384</v>
+        <v>289.76053639846742</v>
       </c>
       <c r="D98">
-        <v>162.5</v>
+        <v>90.5</v>
       </c>
       <c r="E98">
-        <v>46.5</v>
+        <v>181.5</v>
       </c>
       <c r="F98">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G98">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="H98">
-        <v>74.699612740641953</v>
+        <v>-63.080223238090113</v>
       </c>
       <c r="I98">
-        <v>931.17699999999991</v>
+        <v>686.94100000000003</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>6174</v>
+        <v>3928</v>
       </c>
       <c r="B99">
-        <v>228.4428247489472</v>
+        <v>142.87805498981669</v>
       </c>
       <c r="C99">
-        <v>207.76465824425009</v>
+        <v>292.52774949083505</v>
       </c>
       <c r="D99">
-        <v>172.5</v>
+        <v>92.5</v>
       </c>
       <c r="E99">
-        <v>39.5</v>
+        <v>182.5</v>
       </c>
       <c r="F99">
         <v>122</v>
       </c>
       <c r="G99">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="H99">
-        <v>74.701889953857048</v>
+        <v>-62.445910192614548</v>
       </c>
       <c r="I99">
-        <v>979.69699999999989</v>
+        <v>663.67099999999994</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>6316</v>
+        <v>3912</v>
       </c>
       <c r="B100">
-        <v>230.38252058264723</v>
+        <v>138.65720858895705</v>
       </c>
       <c r="C100">
-        <v>202.99857504749841</v>
+        <v>282.26891615541922</v>
       </c>
       <c r="D100">
-        <v>171.5</v>
+        <v>80.5</v>
       </c>
       <c r="E100">
-        <v>41.5</v>
+        <v>163.5</v>
       </c>
       <c r="F100">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G100">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="H100">
-        <v>74.143605573691403</v>
+        <v>-64.805083908107264</v>
       </c>
       <c r="I100">
-        <v>1013.663</v>
+        <v>760.279</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>6306</v>
+        <v>3417</v>
       </c>
       <c r="B101">
-        <v>231.32952743418966</v>
+        <v>139.99122036874451</v>
       </c>
       <c r="C101">
-        <v>201.5093561687282</v>
+        <v>282.15949663447469</v>
       </c>
       <c r="D101">
-        <v>171.5</v>
+        <v>88.5</v>
       </c>
       <c r="E101">
-        <v>41.5</v>
+        <v>163.5</v>
       </c>
       <c r="F101">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G101">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="H101">
-        <v>74.149417242774092</v>
+        <v>-64.793873497766256</v>
       </c>
       <c r="I101">
-        <v>1005.7809999999999</v>
+        <v>745.03800000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>6372</v>
+        <v>3729</v>
       </c>
       <c r="B102">
-        <v>230.76820464532329</v>
+        <v>138.03110753553233</v>
       </c>
       <c r="C102">
-        <v>203.47504708097929</v>
+        <v>280.31348887101097</v>
       </c>
       <c r="D102">
-        <v>171.5</v>
+        <v>83.5</v>
       </c>
       <c r="E102">
-        <v>42.5</v>
+        <v>161.5</v>
       </c>
       <c r="F102">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G102">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="H102">
-        <v>74.010910684672112</v>
+        <v>-64.952020607897339</v>
       </c>
       <c r="I102">
-        <v>1017.1369999999999</v>
+        <v>775.11799999999994</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>6436</v>
+        <v>3739</v>
       </c>
       <c r="B103">
-        <v>232.5394655065258</v>
+        <v>138.04252473923509</v>
       </c>
       <c r="C103">
-        <v>197.41298943443132</v>
+        <v>281.64455736828029</v>
       </c>
       <c r="D103">
-        <v>172.5</v>
+        <v>83.5</v>
       </c>
       <c r="E103">
-        <v>26.5</v>
+        <v>162.5</v>
       </c>
       <c r="F103">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G103">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="H103">
-        <v>74.176231914101407</v>
+        <v>-64.914844162840524</v>
       </c>
       <c r="I103">
-        <v>1038.3019999999999</v>
+        <v>796.67899999999997</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>6462</v>
+        <v>3867</v>
       </c>
       <c r="B104">
-        <v>233.44552770040235</v>
+        <v>135.5960693043703</v>
       </c>
       <c r="C104">
-        <v>195.52754565150107</v>
+        <v>279.05120248254462</v>
       </c>
       <c r="D104">
-        <v>173.5</v>
+        <v>78.5</v>
       </c>
       <c r="E104">
-        <v>33.5</v>
+        <v>154.5</v>
       </c>
       <c r="F104">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G104">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="H104">
-        <v>74.020946824419227</v>
+        <v>-65.71687908536606</v>
       </c>
       <c r="I104">
-        <v>988.43099999999993</v>
+        <v>812.37699999999984</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>6555</v>
+        <v>3424</v>
       </c>
       <c r="B105">
-        <v>233.39145690312739</v>
+        <v>138.23598130841123</v>
       </c>
       <c r="C105">
-        <v>192.85949656750572</v>
+        <v>282.36799065420558</v>
       </c>
       <c r="D105">
-        <v>172.5</v>
+        <v>83.5</v>
       </c>
       <c r="E105">
-        <v>23.5</v>
+        <v>160.5</v>
       </c>
       <c r="F105">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G105">
-        <v>377</v>
+        <v>240</v>
       </c>
       <c r="H105">
-        <v>74.440271688981582</v>
+        <v>-64.823008232183483</v>
       </c>
       <c r="I105">
-        <v>990.59700000000009</v>
+        <v>781.27199999999993</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>6364</v>
+        <v>3414</v>
       </c>
       <c r="B106">
-        <v>232.89739157762415</v>
+        <v>138.19625073227886</v>
       </c>
       <c r="C106">
-        <v>197.41640477686988</v>
+        <v>276.26977152899826</v>
       </c>
       <c r="D106">
-        <v>172.5</v>
+        <v>83.5</v>
       </c>
       <c r="E106">
-        <v>27.5</v>
+        <v>154.5</v>
       </c>
       <c r="F106">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G106">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="H106">
-        <v>73.886772082627445</v>
+        <v>-65.383788441445745</v>
       </c>
       <c r="I106">
-        <v>1010.6529999999999</v>
+        <v>712.38099999999997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>6388</v>
+        <v>3554</v>
       </c>
       <c r="B107">
-        <v>233.59893550407014</v>
+        <v>138.42374788970176</v>
       </c>
       <c r="C107">
-        <v>195.87226048841578</v>
+        <v>278.16094541361844</v>
       </c>
       <c r="D107">
-        <v>172.5</v>
+        <v>88.5</v>
       </c>
       <c r="E107">
-        <v>25.5</v>
+        <v>154.5</v>
       </c>
       <c r="F107">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G107">
-        <v>375</v>
+        <v>246</v>
       </c>
       <c r="H107">
-        <v>73.880861349645414</v>
+        <v>-65.401540619331897</v>
       </c>
       <c r="I107">
-        <v>1026.1589999999999</v>
+        <v>722.88300000000004</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>6461</v>
+        <v>3404</v>
       </c>
       <c r="B108">
-        <v>235.27596347314656</v>
+        <v>138.14012925969448</v>
       </c>
       <c r="C108">
-        <v>192.47794459062064</v>
+        <v>275.6915393654524</v>
       </c>
       <c r="D108">
-        <v>172.5</v>
+        <v>85.5</v>
       </c>
       <c r="E108">
-        <v>29.5</v>
+        <v>154.5</v>
       </c>
       <c r="F108">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G108">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="H108">
-        <v>73.679992148012104</v>
+        <v>-65.317726861483607</v>
       </c>
       <c r="I108">
-        <v>973.90800000000002</v>
+        <v>709.47699999999998</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>6473</v>
+        <v>3409</v>
       </c>
       <c r="B109">
-        <v>234.7665688243473</v>
+        <v>137.93077148723967</v>
       </c>
       <c r="C109">
-        <v>193.47427776919511</v>
+        <v>275.46289234379583</v>
       </c>
       <c r="D109">
-        <v>171.5</v>
+        <v>88.5</v>
       </c>
       <c r="E109">
-        <v>29.5</v>
+        <v>153.5</v>
       </c>
       <c r="F109">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G109">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="H109">
-        <v>73.745753000155389</v>
+        <v>-65.662825114234678</v>
       </c>
       <c r="I109">
-        <v>992.7399999999999</v>
+        <v>719.33600000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>6490</v>
+        <v>3511</v>
       </c>
       <c r="B110">
-        <v>235.36456086286594</v>
+        <v>137.24836228994587</v>
       </c>
       <c r="C110">
-        <v>190.36964560862867</v>
+        <v>275.8034747935061</v>
       </c>
       <c r="D110">
-        <v>173.5</v>
+        <v>86.5</v>
       </c>
       <c r="E110">
-        <v>29.5</v>
+        <v>150.5</v>
       </c>
       <c r="F110">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G110">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="H110">
-        <v>73.935097505696888</v>
+        <v>-65.920833445140488</v>
       </c>
       <c r="I110">
-        <v>992.54099999999994</v>
+        <v>739.76299999999992</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>6601</v>
+        <v>3445</v>
       </c>
       <c r="B111">
-        <v>236.92304196333887</v>
+        <v>136.68969521044994</v>
       </c>
       <c r="C111">
-        <v>186.02863202545069</v>
+        <v>274.40029027576196</v>
       </c>
       <c r="D111">
-        <v>172.5</v>
+        <v>88.5</v>
       </c>
       <c r="E111">
-        <v>22.5</v>
+        <v>148.5</v>
       </c>
       <c r="F111">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G111">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="H111">
-        <v>73.59012338558567</v>
+        <v>-66.066180282411466</v>
       </c>
       <c r="I111">
-        <v>966.62799999999993</v>
+        <v>723.98199999999997</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>6442</v>
+        <v>2773</v>
       </c>
       <c r="B112">
-        <v>235.91260478112386</v>
+        <v>137.47998557518932</v>
       </c>
       <c r="C112">
-        <v>189.53989444271966</v>
+        <v>273.72701045798772</v>
       </c>
       <c r="D112">
-        <v>172.5</v>
+        <v>92.5</v>
       </c>
       <c r="E112">
-        <v>30.5</v>
+        <v>146.5</v>
       </c>
       <c r="F112">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G112">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="H112">
-        <v>73.256623460727738</v>
+        <v>-65.673322345362692</v>
       </c>
       <c r="I112">
-        <v>972.53399999999988</v>
+        <v>671.84899999999993</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>6680</v>
+        <v>2837</v>
       </c>
       <c r="B113">
-        <v>235.7618263473054</v>
+        <v>138.34825519915404</v>
       </c>
       <c r="C113">
-        <v>191.21541916167664</v>
+        <v>274.47479732111384</v>
       </c>
       <c r="D113">
-        <v>166.5</v>
+        <v>91.5</v>
       </c>
       <c r="E113">
-        <v>23.5</v>
+        <v>148.5</v>
       </c>
       <c r="F113">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G113">
-        <v>377</v>
+        <v>252</v>
       </c>
       <c r="H113">
-        <v>73.300105145250214</v>
+        <v>-65.514783071653454</v>
       </c>
       <c r="I113">
-        <v>992.03499999999997</v>
+        <v>677.52200000000005</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>6660</v>
+        <v>2748</v>
       </c>
       <c r="B114">
-        <v>236.69354354354354</v>
+        <v>138.78275109170306</v>
       </c>
       <c r="C114">
-        <v>187.71741741741741</v>
+        <v>274.42867540029113</v>
       </c>
       <c r="D114">
-        <v>169.5</v>
+        <v>91.5</v>
       </c>
       <c r="E114">
-        <v>20.5</v>
+        <v>147.5</v>
       </c>
       <c r="F114">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G114">
-        <v>380</v>
+        <v>253</v>
       </c>
       <c r="H114">
-        <v>73.297333314391693</v>
+        <v>-65.363778765977244</v>
       </c>
       <c r="I114">
-        <v>1019.09</v>
+        <v>678.78000000000009</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>6701</v>
+        <v>2780</v>
       </c>
       <c r="B115">
-        <v>235.95925981196837</v>
+        <v>137.57230215827337</v>
       </c>
       <c r="C115">
-        <v>189.71407252648859</v>
+        <v>272.2658273381295</v>
       </c>
       <c r="D115">
-        <v>171.5</v>
+        <v>88.5</v>
       </c>
       <c r="E115">
-        <v>25.5</v>
+        <v>146.5</v>
       </c>
       <c r="F115">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G115">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="H115">
-        <v>73.222265697188931</v>
+        <v>-65.630340026607854</v>
       </c>
       <c r="I115">
-        <v>1024.9590000000001</v>
+        <v>690.13300000000004</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>6672</v>
+        <v>2849</v>
       </c>
       <c r="B116">
-        <v>236.99685251798562</v>
+        <v>137.68058968058969</v>
       </c>
       <c r="C116">
-        <v>189.01948441247004</v>
+        <v>272.27553527553528</v>
       </c>
       <c r="D116">
-        <v>173.5</v>
+        <v>86.5</v>
       </c>
       <c r="E116">
-        <v>26.5</v>
+        <v>144.5</v>
       </c>
       <c r="F116">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G116">
-        <v>374</v>
+        <v>256</v>
       </c>
       <c r="H116">
-        <v>73.175946044721115</v>
+        <v>-65.698585509857551</v>
       </c>
       <c r="I116">
-        <v>1011.8199999999999</v>
+        <v>727.04399999999987</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>6476</v>
+        <v>3266</v>
       </c>
       <c r="B117">
-        <v>237.09651019147623</v>
+        <v>137.36221677893448</v>
       </c>
       <c r="C117">
-        <v>187.59079678814084</v>
+        <v>274.43723208818125</v>
       </c>
       <c r="D117">
-        <v>172.5</v>
+        <v>85.5</v>
       </c>
       <c r="E117">
-        <v>28.5</v>
+        <v>146.5</v>
       </c>
       <c r="F117">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G117">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="H117">
-        <v>73.471000284618952</v>
+        <v>-66.048110700517171</v>
       </c>
       <c r="I117">
-        <v>1010.6689999999999</v>
+        <v>786.80499999999995</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>6606</v>
+        <v>2924</v>
       </c>
       <c r="B118">
-        <v>238.20481380563123</v>
+        <v>136.46682626538987</v>
       </c>
       <c r="C118">
-        <v>182.78353012412958</v>
+        <v>269.21956224350203</v>
       </c>
       <c r="D118">
-        <v>169.5</v>
+        <v>70.5</v>
       </c>
       <c r="E118">
-        <v>23.5</v>
+        <v>141.5</v>
       </c>
       <c r="F118">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G118">
-        <v>377</v>
+        <v>259</v>
       </c>
       <c r="H118">
-        <v>73.532024258312504</v>
+        <v>-65.673795056748205</v>
       </c>
       <c r="I118">
-        <v>1033.338</v>
+        <v>730.774</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6527</v>
+        <v>2876</v>
       </c>
       <c r="B119">
-        <v>239.25126398038915</v>
+        <v>135.11961057023643</v>
       </c>
       <c r="C119">
-        <v>182.46284663704611</v>
+        <v>265.34944367176632</v>
       </c>
       <c r="D119">
-        <v>174.5</v>
+        <v>71.5</v>
       </c>
       <c r="E119">
-        <v>23.5</v>
+        <v>139.5</v>
       </c>
       <c r="F119">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G119">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="H119">
-        <v>73.376663862728634</v>
+        <v>-65.512884169498335</v>
       </c>
       <c r="I119">
-        <v>1009.5779999999999</v>
+        <v>707.43500000000006</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>6409</v>
+        <v>2951</v>
       </c>
       <c r="B120">
-        <v>238.55390856607895</v>
+        <v>134.21484242629617</v>
       </c>
       <c r="C120">
-        <v>184.10188797004213</v>
+        <v>263.99390037275498</v>
       </c>
       <c r="D120">
-        <v>174.5</v>
+        <v>68.5</v>
       </c>
       <c r="E120">
-        <v>21.5</v>
+        <v>137.5</v>
       </c>
       <c r="F120">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G120">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="H120">
-        <v>73.279235991908976</v>
+        <v>-65.274251853391732</v>
       </c>
       <c r="I120">
-        <v>1011.297</v>
+        <v>726.97799999999995</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>6469</v>
+        <v>2944</v>
       </c>
       <c r="B121">
-        <v>238.01885917452466</v>
+        <v>134.31351902173913</v>
       </c>
       <c r="C121">
-        <v>185.80707991961663</v>
+        <v>263.65489130434781</v>
       </c>
       <c r="D121">
-        <v>172.5</v>
+        <v>69.5</v>
       </c>
       <c r="E121">
-        <v>23.5</v>
+        <v>135.5</v>
       </c>
       <c r="F121">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G121">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="H121">
-        <v>73.274664507948444</v>
+        <v>-65.051234605549993</v>
       </c>
       <c r="I121">
-        <v>1004.3519999999999</v>
+        <v>720.44399999999996</v>
       </c>
     </row>
   </sheetData>
